--- a/WELL EML ratio calculator to test SPD combinations for D22 fixtures.xlsx
+++ b/WELL EML ratio calculator to test SPD combinations for D22 fixtures.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/keba7154_colorado_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/keba7154_colorado_edu/Documents/Documents/animal shelters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50EFB422-6C29-45C1-90B5-D712A4C05761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{50EFB422-6C29-45C1-90B5-D712A4C05761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A685DACB-35FE-4627-BBE0-F591731A314A}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Circadian" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="SPDs combined" sheetId="4" r:id="rId3"/>
+    <sheet name="vorc" sheetId="5" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId3"/>
+    <sheet name="SPDs combined" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="CCT">'[1]CCT.v'!$A$1</definedName>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>lamp*c</t>
   </si>
@@ -171,7 +172,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.000_);\(#,##0.000\)"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="9"/>
       <name val="Geneva"/>
@@ -257,8 +258,19 @@
       <color rgb="FFFF0000"/>
       <name val="Geneva"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Geneva"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Geneva"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +311,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -377,6 +407,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -387,7 +445,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -432,10 +490,25 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
@@ -448,12 +521,12 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color theme="4"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -489,6 +562,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -497,6 +574,10 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -530,14 +611,6 @@
           <color rgb="FFB2B2B2"/>
         </right>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color theme="4"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2268,6 +2341,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="302732480"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3210,16 +3284,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F73" totalsRowCount="1">
   <autoFilter ref="A1:F72" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="λ (nm)" totalsRowLabel="Total" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Lamp data" dataDxfId="12" dataCellStyle="20% - Accent4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="λ (nm)" totalsRowLabel="Total" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Lamp data" dataDxfId="13" dataCellStyle="20% - Accent4">
       <calculatedColumnFormula>INDEX(Table2[],MATCH(Table1[[#This Row],[λ (nm)]],Table2[Wavelength],0),MATCH($H$2,Table2[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="circadian" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="visual" dataDxfId="10" totalsRowDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="lamp*c" totalsRowFunction="sum" dataDxfId="9" dataCellStyle="Calculation">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="circadian" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="visual" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="lamp*c" totalsRowFunction="sum" dataDxfId="8" dataCellStyle="Calculation">
       <calculatedColumnFormula>Table1[[#This Row],[circadian]]*Table1[[#This Row],[Lamp data]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="lamp*v" totalsRowFunction="sum" dataDxfId="8" dataCellStyle="Calculation">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="lamp*v" totalsRowFunction="sum" dataDxfId="7" dataCellStyle="Calculation">
       <calculatedColumnFormula>Table1[[#This Row],[visual]]*Table1[[#This Row],[Lamp data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3228,19 +3302,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:H72" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:H72" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:H72" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Wavelength" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Wavelength" dataDxfId="5">
       <calculatedColumnFormula>A1+5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Sample LED 2700 K"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Sample LED 4000 K"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Sample Fluorescent 2950 K"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Sample Fluorescent 4000 K" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Sample Fluorescent 6500 K" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Sample Overcast" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Ltg Lab Combined" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Sample Fluorescent 4000 K" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Sample Fluorescent 6500 K" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Sample Overcast" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Ltg Lab Combined" dataDxfId="1">
       <calculatedColumnFormula>'SPDs combined'!J3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3514,8 +3588,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="D72" sqref="C1:D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="11.35"/>
@@ -3664,14 +3738,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:13" ht="14.35">
       <c r="A6" s="6">
@@ -3696,14 +3770,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" ht="14.35">
       <c r="A7" s="6">
@@ -3728,14 +3802,14 @@
         <v>9.3377600000000004E-7</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" ht="14.35">
       <c r="A8" s="6">
@@ -3759,14 +3833,14 @@
         <f>Table1[[#This Row],[visual]]*Table1[[#This Row],[Lamp data]]</f>
         <v>3.2293689999999997E-6</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:13" ht="14.35">
       <c r="A9" s="6">
@@ -5337,6 +5411,16 @@
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="H8:M8"/>
   </mergeCells>
+  <conditionalFormatting sqref="C2:C72">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D72">
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -5347,18 +5431,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C72">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <color rgb="FF00B0F0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>$H$2="custom"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5387,6 +5461,617 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D80417F-D691-446B-9124-E445C202F451}">
+  <dimension ref="A1:B72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12" thickBot="1">
+      <c r="A1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="11.7" thickTop="1">
+      <c r="A2" s="27">
+        <v>9.1816513603793079E-4</v>
+      </c>
+      <c r="B2" s="28">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="27">
+        <v>1.6672378957143452E-3</v>
+      </c>
+      <c r="B3" s="29">
+        <v>6.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="27">
+        <v>3.0944160387187795E-3</v>
+      </c>
+      <c r="B4" s="28">
+        <v>1.2E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="27">
+        <v>5.8803540774023059E-3</v>
+      </c>
+      <c r="B5" s="29">
+        <v>2.1699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="27">
+        <v>1.1427705485685623E-2</v>
+      </c>
+      <c r="B6" s="28">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="27">
+        <v>2.2811230203183226E-2</v>
+      </c>
+      <c r="B7" s="29">
+        <v>6.4000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="27">
+        <v>4.6154994540401575E-2</v>
+      </c>
+      <c r="B8" s="28">
+        <v>1.2099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="27">
+        <v>7.947661670983408E-2</v>
+      </c>
+      <c r="B9" s="29">
+        <v>2.1800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="27">
+        <v>0.13723734797580478</v>
+      </c>
+      <c r="B10" s="28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="27">
+        <v>0.18709636643537131</v>
+      </c>
+      <c r="B11" s="29">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="27">
+        <v>0.25386523252173454</v>
+      </c>
+      <c r="B12" s="28">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="27">
+        <v>0.32067947284137727</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1.6840000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="27">
+        <v>0.40158707367541496</v>
+      </c>
+      <c r="B14" s="28">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="27">
+        <v>0.47400236533084894</v>
+      </c>
+      <c r="B15" s="29">
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="27">
+        <v>0.55371524185456422</v>
+      </c>
+      <c r="B16" s="28">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="27">
+        <v>0.62965395406188329</v>
+      </c>
+      <c r="B17" s="29">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="27">
+        <v>0.70804861842644806</v>
+      </c>
+      <c r="B18" s="28">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="27">
+        <v>0.78521617884632233</v>
+      </c>
+      <c r="B19" s="29">
+        <v>7.3899999999999993E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="27">
+        <v>0.86029078238348877</v>
+      </c>
+      <c r="B20" s="28">
+        <v>9.0980000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="27">
+        <v>0.91773356033794673</v>
+      </c>
+      <c r="B21" s="29">
+        <v>0.11260000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="27">
+        <v>0.96560464889561914</v>
+      </c>
+      <c r="B22" s="28">
+        <v>0.13902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="27">
+        <v>0.99062133014157938</v>
+      </c>
+      <c r="B23" s="29">
+        <v>0.16930000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="27">
+        <v>1</v>
+      </c>
+      <c r="B24" s="28">
+        <v>0.20802000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="27">
+        <v>0.99202228943038695</v>
+      </c>
+      <c r="B25" s="29">
+        <v>0.2586</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="27">
+        <v>0.9659516578189723</v>
+      </c>
+      <c r="B26" s="28">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="27">
+        <v>0.92229868076593302</v>
+      </c>
+      <c r="B27" s="29">
+        <v>0.4073</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="27">
+        <v>0.86288809946250544</v>
+      </c>
+      <c r="B28" s="28">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="27">
+        <v>0.78523346349967649</v>
+      </c>
+      <c r="B29" s="29">
+        <v>0.60819999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="27">
+        <v>0.69962803975238175</v>
+      </c>
+      <c r="B30" s="28">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="27">
+        <v>0.60942212431434917</v>
+      </c>
+      <c r="B31" s="29">
+        <v>0.79320000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="27">
+        <v>0.51930871043533589</v>
+      </c>
+      <c r="B32" s="28">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="27">
+        <v>0.4325332971239953</v>
+      </c>
+      <c r="B33" s="29">
+        <v>0.91485000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="27">
+        <v>0.35170723138865106</v>
+      </c>
+      <c r="B34" s="28">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="27">
+        <v>0.27913520134752812</v>
+      </c>
+      <c r="B35" s="29">
+        <v>0.98029999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="27">
+        <v>0.21572225377137788</v>
+      </c>
+      <c r="B36" s="28">
+        <v>0.99495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="27">
+        <v>0.16205588690030312</v>
+      </c>
+      <c r="B37" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="27">
+        <v>0.11852562336067191</v>
+      </c>
+      <c r="B38" s="28">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="27">
+        <v>8.4345718537514977E-2</v>
+      </c>
+      <c r="B39" s="29">
+        <v>0.97860000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="27">
+        <v>5.8701270555627509E-2</v>
+      </c>
+      <c r="B40" s="28">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="27">
+        <v>4.0008893938139792E-2</v>
+      </c>
+      <c r="B41" s="29">
+        <v>0.91539999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="27">
+        <v>2.6874736625553022E-2</v>
+      </c>
+      <c r="B42" s="28">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="27">
+        <v>1.7862446562977388E-2</v>
+      </c>
+      <c r="B43" s="29">
+        <v>0.81630000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="27">
+        <v>1.1790140775018084E-2</v>
+      </c>
+      <c r="B44" s="28">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="27">
+        <v>7.73429551931064E-3</v>
+      </c>
+      <c r="B45" s="29">
+        <v>0.69489999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="27">
+        <v>5.0668639839673959E-3</v>
+      </c>
+      <c r="B46" s="28">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="27">
+        <v>3.3176629734713446E-3</v>
+      </c>
+      <c r="B47" s="29">
+        <v>0.56679999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="27">
+        <v>2.1769761016290699E-3</v>
+      </c>
+      <c r="B48" s="28">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="27">
+        <v>1.4331433756986992E-3</v>
+      </c>
+      <c r="B49" s="29">
+        <v>0.44119999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="27">
+        <v>9.4731314937016855E-4</v>
+      </c>
+      <c r="B50" s="28">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="27">
+        <v>6.276479476929565E-4</v>
+      </c>
+      <c r="B51" s="29">
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="27">
+        <v>4.1795540807376891E-4</v>
+      </c>
+      <c r="B52" s="28">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="27">
+        <v>2.7980095745635966E-4</v>
+      </c>
+      <c r="B53" s="29">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="27">
+        <v>1.8834080948881891E-4</v>
+      </c>
+      <c r="B54" s="28">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="27">
+        <v>1.2733684090834526E-4</v>
+      </c>
+      <c r="B55" s="29">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="27">
+        <v>8.6575081123062847E-5</v>
+      </c>
+      <c r="B56" s="28">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="27">
+        <v>5.9191384279176679E-5</v>
+      </c>
+      <c r="B57" s="29">
+        <v>8.1600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="27">
+        <v>4.0694517167499228E-5</v>
+      </c>
+      <c r="B58" s="28">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="27">
+        <v>2.8132038226311132E-5</v>
+      </c>
+      <c r="B59" s="29">
+        <v>4.4580000000000002E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="27">
+        <v>1.955348187952486E-5</v>
+      </c>
+      <c r="B60" s="28">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="27">
+        <v>1.3648027270465082E-5</v>
+      </c>
+      <c r="B61" s="29">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="27">
+        <v>9.5763671862575815E-6</v>
+      </c>
+      <c r="B62" s="28">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="27">
+        <v>6.7542499585040005E-6</v>
+      </c>
+      <c r="B63" s="29">
+        <v>1.192E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="27">
+        <v>4.788042823518799E-6</v>
+      </c>
+      <c r="B64" s="28">
+        <v>8.2100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="27">
+        <v>3.4084114321041705E-6</v>
+      </c>
+      <c r="B65" s="29">
+        <v>5.7229999999999998E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="27">
+        <v>2.4381894723012652E-6</v>
+      </c>
+      <c r="B66" s="28">
+        <v>4.1019999999999997E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="27">
+        <v>1.7525194375577886E-6</v>
+      </c>
+      <c r="B67" s="29">
+        <v>2.9290000000000002E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="27">
+        <v>1.7525194375577886E-6</v>
+      </c>
+      <c r="B68" s="27">
+        <v>1.4645000000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="27">
+        <v>1.7525194375577886E-6</v>
+      </c>
+      <c r="B69" s="27">
+        <v>7.3225000000000004E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="27">
+        <v>1.7525194375577886E-6</v>
+      </c>
+      <c r="B70" s="27">
+        <v>3.6612500000000002E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="27">
+        <v>1.7525194375577886E-6</v>
+      </c>
+      <c r="B71" s="27">
+        <v>1.8306250000000001E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="27">
+        <v>1.7525194375577886E-6</v>
+      </c>
+      <c r="B72" s="27">
+        <v>9.1531250000000006E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A72">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B72">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
@@ -7445,7 +8130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DFD25E-1DF8-4543-94F6-3AE9F371112F}">
   <dimension ref="A1:K73"/>
   <sheetViews>
@@ -7556,11 +8241,11 @@
         <v>390</v>
       </c>
       <c r="B5" s="22"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="22"/>
       <c r="J5" s="22">
         <f t="shared" si="0"/>
@@ -7572,11 +8257,11 @@
         <v>395</v>
       </c>
       <c r="B6" s="22"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="22"/>
       <c r="J6" s="22">
         <f t="shared" si="0"/>
@@ -7588,11 +8273,11 @@
         <v>400</v>
       </c>
       <c r="B7" s="22"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="22"/>
       <c r="J7" s="22">
         <f t="shared" si="0"/>
@@ -7604,11 +8289,11 @@
         <v>405</v>
       </c>
       <c r="B8" s="22"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="22"/>
       <c r="J8" s="22">
         <f t="shared" si="0"/>
@@ -7620,11 +8305,11 @@
         <v>410</v>
       </c>
       <c r="B9" s="22"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="22"/>
       <c r="J9" s="22">
         <f t="shared" si="0"/>
@@ -7636,11 +8321,11 @@
         <v>415</v>
       </c>
       <c r="B10" s="22"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="22"/>
       <c r="J10" s="22">
         <f t="shared" si="0"/>
@@ -7652,11 +8337,11 @@
         <v>420</v>
       </c>
       <c r="B11" s="22"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="22"/>
       <c r="J11" s="22">
         <f t="shared" si="0"/>
@@ -7668,11 +8353,11 @@
         <v>425</v>
       </c>
       <c r="B12" s="22"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="22"/>
       <c r="J12" s="22">
         <f t="shared" si="0"/>
@@ -7684,11 +8369,11 @@
         <v>430</v>
       </c>
       <c r="B13" s="22"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="22"/>
       <c r="J13" s="22">
         <f t="shared" si="0"/>
@@ -7700,11 +8385,11 @@
         <v>435</v>
       </c>
       <c r="B14" s="22"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="22"/>
       <c r="J14" s="22">
         <f t="shared" si="0"/>
@@ -7716,11 +8401,11 @@
         <v>440</v>
       </c>
       <c r="B15" s="22"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="22"/>
       <c r="J15" s="22">
         <f t="shared" si="0"/>
@@ -7732,11 +8417,11 @@
         <v>445</v>
       </c>
       <c r="B16" s="22"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="22"/>
       <c r="J16" s="22">
         <f t="shared" si="0"/>
@@ -7748,11 +8433,11 @@
         <v>450</v>
       </c>
       <c r="B17" s="22"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="22"/>
       <c r="J17" s="22">
         <f t="shared" si="0"/>
@@ -7764,11 +8449,11 @@
         <v>455</v>
       </c>
       <c r="B18" s="22"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="22"/>
       <c r="J18" s="22">
         <f t="shared" si="0"/>
@@ -7780,11 +8465,11 @@
         <v>460</v>
       </c>
       <c r="B19" s="22"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="22"/>
       <c r="J19" s="22">
         <f t="shared" si="0"/>
@@ -7796,11 +8481,11 @@
         <v>465</v>
       </c>
       <c r="B20" s="22"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="22"/>
       <c r="J20" s="22">
         <f t="shared" si="0"/>
@@ -7812,11 +8497,11 @@
         <v>470</v>
       </c>
       <c r="B21" s="22"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="22"/>
       <c r="J21" s="22">
         <f t="shared" si="0"/>
@@ -7828,11 +8513,11 @@
         <v>475</v>
       </c>
       <c r="B22" s="22"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="22"/>
       <c r="J22" s="22">
         <f t="shared" si="0"/>
@@ -7844,11 +8529,11 @@
         <v>480</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="22"/>
       <c r="J23" s="22">
         <f t="shared" si="0"/>
@@ -7860,11 +8545,11 @@
         <v>485</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="22"/>
       <c r="J24" s="22">
         <f t="shared" si="0"/>
@@ -7876,11 +8561,11 @@
         <v>490</v>
       </c>
       <c r="B25" s="22"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="22"/>
       <c r="J25" s="22">
         <f t="shared" si="0"/>
@@ -7892,11 +8577,11 @@
         <v>495</v>
       </c>
       <c r="B26" s="22"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="22"/>
       <c r="J26" s="22">
         <f t="shared" si="0"/>
@@ -7908,11 +8593,11 @@
         <v>500</v>
       </c>
       <c r="B27" s="22"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="22"/>
       <c r="J27" s="22">
         <f t="shared" si="0"/>
